--- a/AAII_Financials/Quarterly/MIR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MIR_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,31 +665,32 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,17 +709,20 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>175800</v>
+      </c>
+      <c r="E8" s="3">
         <v>163200</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
@@ -737,17 +741,20 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>96800</v>
+      </c>
+      <c r="E9" s="3">
         <v>98800</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
@@ -766,17 +773,20 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E10" s="3">
         <v>64400</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
@@ -795,8 +805,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -808,17 +821,18 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E12" s="3">
         <v>7100</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F12" s="3" t="s">
         <v>3</v>
       </c>
@@ -837,8 +851,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -866,17 +883,20 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>57400</v>
+      </c>
+      <c r="E14" s="3">
         <v>1900</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
@@ -895,8 +915,11 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -924,8 +947,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -934,17 +960,18 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>250400</v>
+      </c>
+      <c r="E17" s="3">
         <v>196800</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
       </c>
@@ -963,17 +990,20 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-74600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-33600</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
@@ -992,8 +1022,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1005,17 +1038,18 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E20" s="3">
         <v>18400</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1034,17 +1068,20 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="E21" s="3">
         <v>29700</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1063,17 +1100,20 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E22" s="3">
         <v>7900</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1092,17 +1132,20 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-66700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-23100</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1121,17 +1164,20 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-4100</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1150,8 +1196,11 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1179,17 +1228,20 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-59300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-19000</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1208,17 +1260,20 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-58600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-17700</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1237,8 +1292,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1266,8 +1324,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1295,8 +1356,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1324,8 +1388,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1353,17 +1420,20 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-18400</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1382,17 +1452,20 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-58600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-17700</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1411,8 +1484,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1440,17 +1516,20 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-58600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-17700</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1469,22 +1548,25 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1503,8 +1585,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1516,8 +1601,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1529,17 +1615,18 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>90600</v>
+      </c>
+      <c r="E41" s="3">
         <v>84200</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1558,8 +1645,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1587,17 +1677,20 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>199100</v>
+      </c>
+      <c r="E43" s="3">
         <v>199300</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1616,17 +1709,20 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>130400</v>
+      </c>
+      <c r="E44" s="3">
         <v>123200</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1645,17 +1741,20 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E45" s="3">
         <v>29800</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1674,17 +1773,20 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>450200</v>
+      </c>
+      <c r="E46" s="3">
         <v>436500</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1703,8 +1805,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1732,17 +1837,20 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>165500</v>
+      </c>
+      <c r="E48" s="3">
         <v>170800</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1761,17 +1869,20 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2279300</v>
+      </c>
+      <c r="E49" s="3">
         <v>2416000</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1790,8 +1901,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1819,8 +1933,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1848,17 +1965,20 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E52" s="3">
         <v>25600</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1877,8 +1997,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1906,17 +2029,20 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2916900</v>
+      </c>
+      <c r="E54" s="3">
         <v>3048900</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1935,8 +2061,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1948,8 +2077,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1961,17 +2091,18 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>61800</v>
+      </c>
+      <c r="E57" s="3">
         <v>53100</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1990,16 +2121,19 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>5800</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
+      <c r="E58" s="3">
+        <v>5800</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2019,17 +2153,20 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>145500</v>
+      </c>
+      <c r="E59" s="3">
         <v>154500</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2048,17 +2185,20 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>213100</v>
+      </c>
+      <c r="E60" s="3">
         <v>213400</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2077,17 +2217,20 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>804100</v>
+      </c>
+      <c r="E61" s="3">
         <v>805700</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2106,17 +2249,20 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>240800</v>
+      </c>
+      <c r="E62" s="3">
         <v>272600</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2135,8 +2281,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2164,8 +2313,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2193,8 +2345,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2222,17 +2377,20 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1336700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1379700</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2251,8 +2409,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2264,8 +2425,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2293,8 +2455,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2322,8 +2487,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2351,8 +2519,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2380,17 +2551,20 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-207900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-149300</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2409,8 +2583,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2438,8 +2615,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2467,8 +2647,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2496,17 +2679,20 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1580200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1669200</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2525,8 +2711,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2554,22 +2743,25 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="F80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2588,17 +2780,20 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-58600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-17700</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +2812,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2630,16 +2828,17 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>44900</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
+      <c r="E83" s="3">
+        <v>44900</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
@@ -2659,8 +2858,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2688,8 +2890,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2717,8 +2922,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2746,8 +2954,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2775,8 +2986,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2804,17 +3018,20 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E89" s="3">
         <v>11400</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2833,8 +3050,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2846,17 +3066,18 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8700</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2875,8 +3096,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2904,8 +3128,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2933,17 +3160,20 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7900</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2962,8 +3192,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2975,8 +3208,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3004,8 +3238,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3033,8 +3270,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3062,8 +3302,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3091,17 +3334,20 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-600</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3120,17 +3366,20 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1000</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3149,17 +3398,20 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E102" s="3">
         <v>1900</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3176,6 +3428,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MIR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MIR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="92">
   <si>
     <t>MIR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,35 +665,36 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G7" s="2" t="s">
         <v>3</v>
       </c>
@@ -712,20 +713,23 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>160900</v>
+      </c>
+      <c r="E8" s="3">
         <v>175800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>163200</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
@@ -744,20 +748,23 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>91100</v>
+      </c>
+      <c r="E9" s="3">
         <v>96800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>98800</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
@@ -776,20 +783,23 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>69800</v>
+      </c>
+      <c r="E10" s="3">
         <v>79000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>64400</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
@@ -808,8 +818,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -822,20 +835,21 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E12" s="3">
         <v>7400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7100</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
       </c>
@@ -854,8 +868,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -886,20 +903,23 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>500</v>
+      </c>
+      <c r="E14" s="3">
         <v>57400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1900</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -918,8 +938,11 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -950,8 +973,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -961,20 +987,21 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>188500</v>
+      </c>
+      <c r="E17" s="3">
         <v>250400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>196800</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
       </c>
@@ -993,20 +1020,23 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-74600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-33600</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1025,8 +1055,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1039,20 +1072,21 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E20" s="3">
         <v>16300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>18400</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1071,20 +1105,23 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-13400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>29700</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1103,20 +1140,23 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E22" s="3">
         <v>8400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>7900</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1135,20 +1175,23 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-55400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-66700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-23100</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1167,20 +1210,23 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-7400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-4100</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1199,8 +1245,11 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1231,20 +1280,23 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-50400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-59300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-19000</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1263,20 +1315,23 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-47100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-58600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-17700</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1295,8 +1350,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1327,8 +1385,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1359,8 +1420,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1391,8 +1455,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1423,20 +1490,23 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-16300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-18400</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1455,20 +1525,23 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-47100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-58600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-17700</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1487,8 +1560,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1519,20 +1595,23 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-47100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-58600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-17700</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1551,25 +1630,28 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1588,8 +1670,11 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1602,8 +1687,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1616,20 +1702,21 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>58400</v>
+      </c>
+      <c r="E41" s="3">
         <v>90600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>84200</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1648,31 +1735,34 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>4100</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1680,20 +1770,23 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>204600</v>
+      </c>
+      <c r="E43" s="3">
         <v>199100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>199300</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1712,20 +1805,23 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>143100</v>
+      </c>
+      <c r="E44" s="3">
         <v>130400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>123200</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1744,20 +1840,23 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E45" s="3">
         <v>30100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>29800</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1776,20 +1875,23 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>438000</v>
+      </c>
+      <c r="E46" s="3">
         <v>450200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>436500</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1808,8 +1910,11 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1840,20 +1945,23 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>162900</v>
+      </c>
+      <c r="E48" s="3">
         <v>165500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>170800</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1872,20 +1980,23 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2219500</v>
+      </c>
+      <c r="E49" s="3">
         <v>2279300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2416000</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1904,8 +2015,11 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1936,8 +2050,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1968,20 +2085,23 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E52" s="3">
         <v>21900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>25600</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2000,8 +2120,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2032,20 +2155,23 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2835300</v>
+      </c>
+      <c r="E54" s="3">
         <v>2916900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3048900</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2064,8 +2190,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2078,8 +2207,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2092,20 +2222,21 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>60900</v>
+      </c>
+      <c r="E57" s="3">
         <v>61800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>53100</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,19 +2255,22 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="E58" s="3">
         <v>5800</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+      <c r="F58" s="3">
+        <v>5800</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2156,20 +2290,23 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>154700</v>
+      </c>
+      <c r="E59" s="3">
         <v>145500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>154500</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,20 +2325,23 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>221300</v>
+      </c>
+      <c r="E60" s="3">
         <v>213100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>213400</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2220,20 +2360,23 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>802900</v>
+      </c>
+      <c r="E61" s="3">
         <v>804100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>805700</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2252,20 +2395,23 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>236100</v>
+      </c>
+      <c r="E62" s="3">
         <v>240800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>272600</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2284,8 +2430,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2316,8 +2465,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2348,8 +2500,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2380,20 +2535,23 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1333900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1336700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1379700</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2412,8 +2570,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2426,8 +2587,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2458,8 +2620,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2490,8 +2655,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2522,8 +2690,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2554,20 +2725,23 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-255000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-207900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-149300</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2586,8 +2760,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2618,8 +2795,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2650,8 +2830,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2682,20 +2865,23 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1501400</v>
+      </c>
+      <c r="E76" s="3">
         <v>1580200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1669200</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2714,8 +2900,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2746,25 +2935,28 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2783,20 +2975,23 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-47100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-58600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-17700</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2815,8 +3010,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2829,19 +3027,20 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>44900</v>
+        <v>42600</v>
       </c>
       <c r="E83" s="3">
         <v>44900</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
+      <c r="F83" s="3">
+        <v>44900</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2861,8 +3060,11 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2893,8 +3095,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2925,8 +3130,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2957,8 +3165,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2989,8 +3200,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3021,20 +3235,23 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E89" s="3">
         <v>16600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>11400</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3053,8 +3270,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3067,20 +3287,21 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8700</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3099,8 +3320,11 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3131,8 +3355,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3163,20 +3390,23 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7900</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3195,8 +3425,11 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3209,8 +3442,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3241,8 +3475,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3273,8 +3510,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3305,8 +3545,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3337,20 +3580,23 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-600</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3369,20 +3615,23 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1000</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3401,20 +3650,23 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="E102" s="3">
         <v>4800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1900</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3431,6 +3683,9 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MIR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MIR_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,39 +665,39 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -716,23 +716,26 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>217900</v>
+      </c>
+      <c r="E8" s="3">
         <v>160900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>175800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>163200</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
@@ -751,23 +754,26 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>120900</v>
+      </c>
+      <c r="E9" s="3">
         <v>91100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>96800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>98800</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
@@ -786,23 +792,26 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>97000</v>
+      </c>
+      <c r="E10" s="3">
         <v>69800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>79000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>64400</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
@@ -821,8 +830,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -836,23 +848,24 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E12" s="3">
         <v>8000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7100</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
       </c>
@@ -871,8 +884,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -906,23 +922,26 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>160700</v>
+      </c>
+      <c r="E14" s="3">
         <v>500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>57400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1900</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -941,8 +960,11 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -976,8 +998,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -988,23 +1013,24 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>379800</v>
+      </c>
+      <c r="E17" s="3">
         <v>188500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>250400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>196800</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1023,23 +1049,26 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-161900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-27600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-74600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-33600</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1058,8 +1087,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1073,23 +1105,24 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-14700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>16300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>18400</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1108,23 +1141,26 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-106800</v>
+      </c>
+      <c r="E21" s="3">
         <v>300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-13400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>29700</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1143,23 +1179,26 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E22" s="3">
         <v>13100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>8400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7900</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1178,23 +1217,26 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-161400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-55400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-66700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-23100</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1213,23 +1255,26 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-5000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-7400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-4100</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1248,8 +1293,11 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1283,23 +1331,26 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-159700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-50400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-59300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-19000</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1318,23 +1369,26 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-153500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-47100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-58600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-17700</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1353,8 +1407,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1388,8 +1445,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1423,8 +1483,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1458,8 +1521,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1493,23 +1559,26 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E32" s="3">
         <v>14700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-16300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-18400</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1528,23 +1597,26 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-153500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-47100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-58600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-17700</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1563,8 +1635,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1598,23 +1673,26 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-153500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-47100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-58600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-17700</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1633,28 +1711,31 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1673,8 +1754,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1688,8 +1772,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1703,23 +1788,24 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>73500</v>
+      </c>
+      <c r="E41" s="3">
         <v>58400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>90600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>84200</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1738,17 +1824,20 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E42" s="3">
         <v>4100</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1764,8 +1853,8 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -1773,23 +1862,26 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>224000</v>
+      </c>
+      <c r="E43" s="3">
         <v>204600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>199100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>199300</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1808,23 +1900,26 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>143300</v>
+      </c>
+      <c r="E44" s="3">
         <v>143100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>130400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>123200</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1843,23 +1938,26 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E45" s="3">
         <v>27800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>30100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>29800</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1878,23 +1976,26 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>480600</v>
+      </c>
+      <c r="E46" s="3">
         <v>438000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>450200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>436500</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1913,8 +2014,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1948,23 +2052,26 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>164900</v>
+      </c>
+      <c r="E48" s="3">
         <v>162900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>165500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>170800</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1983,23 +2090,26 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2068400</v>
+      </c>
+      <c r="E49" s="3">
         <v>2219500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2279300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2416000</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2018,8 +2128,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2053,8 +2166,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2088,23 +2204,26 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E52" s="3">
         <v>14900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>21900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>25600</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2123,8 +2242,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2158,23 +2280,26 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2738700</v>
+      </c>
+      <c r="E54" s="3">
         <v>2835300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2916900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3048900</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2193,8 +2318,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2208,8 +2336,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2223,23 +2352,24 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>67700</v>
+      </c>
+      <c r="E57" s="3">
         <v>60900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>61800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>53100</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2258,22 +2388,25 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E58" s="3">
         <v>5700</v>
-      </c>
-      <c r="E58" s="3">
-        <v>5800</v>
       </c>
       <c r="F58" s="3">
         <v>5800</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+      <c r="G58" s="3">
+        <v>5800</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2293,23 +2426,26 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>171300</v>
+      </c>
+      <c r="E59" s="3">
         <v>154700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>145500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>154500</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2328,23 +2464,26 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>244300</v>
+      </c>
+      <c r="E60" s="3">
         <v>221300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>213100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>213400</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2363,23 +2502,26 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>801500</v>
+      </c>
+      <c r="E61" s="3">
         <v>802900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>804100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>805700</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2398,23 +2540,26 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>225700</v>
+      </c>
+      <c r="E62" s="3">
         <v>236100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>240800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>272600</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2433,8 +2578,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2468,8 +2616,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2503,8 +2654,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2538,23 +2692,26 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1340500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1333900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1336700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1379700</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2573,8 +2730,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2588,8 +2748,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2623,8 +2784,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2658,8 +2822,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2693,8 +2860,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2728,23 +2898,26 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-408500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-255000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-207900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-149300</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2763,8 +2936,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2798,8 +2974,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2833,8 +3012,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2868,23 +3050,26 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1398200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1501400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1580200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1669200</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2903,8 +3088,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2938,28 +3126,31 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2978,23 +3169,26 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-153500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-47100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-58600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-17700</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3013,8 +3207,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3028,22 +3225,23 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>42100</v>
+      </c>
+      <c r="E83" s="3">
         <v>42600</v>
-      </c>
-      <c r="E83" s="3">
-        <v>44900</v>
       </c>
       <c r="F83" s="3">
         <v>44900</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+      <c r="G83" s="3">
+        <v>44900</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -3063,8 +3261,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3098,8 +3299,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3133,8 +3337,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3168,8 +3375,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3203,8 +3413,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3238,23 +3451,26 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-13800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>16600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>11400</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3273,8 +3489,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3288,23 +3507,24 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8700</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3323,8 +3543,11 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3358,8 +3581,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3393,23 +3619,26 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-14000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7900</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3428,8 +3657,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3443,8 +3675,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3478,8 +3711,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3513,8 +3749,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3548,8 +3787,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3583,23 +3825,26 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-600</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3618,23 +3863,26 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3653,23 +3901,26 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-32200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1900</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3686,6 +3937,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MIR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MIR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="92">
   <si>
     <t>MIR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,42 +665,43 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -719,26 +720,29 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>182100</v>
+      </c>
+      <c r="E8" s="3">
         <v>217900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>160900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>175800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>163200</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -757,26 +761,29 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E9" s="3">
         <v>120900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>91100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>96800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>98800</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
@@ -795,26 +802,29 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>79100</v>
+      </c>
+      <c r="E10" s="3">
         <v>97000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>69800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>79000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>64400</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -833,8 +843,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -849,26 +862,27 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E12" s="3">
         <v>7800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>8000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7100</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
@@ -887,8 +901,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -925,26 +942,29 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E14" s="3">
         <v>160700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>57400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1900</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -963,8 +983,11 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1001,8 +1024,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1014,26 +1040,27 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>198300</v>
+      </c>
+      <c r="E17" s="3">
         <v>379800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>188500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>250400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>196800</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1052,26 +1079,29 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-161900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-27600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-74600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-33600</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1090,8 +1120,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1106,26 +1139,27 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E20" s="3">
         <v>13000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-14700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>16300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>18400</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1144,26 +1178,29 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-106800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-13400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>29700</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1182,26 +1219,29 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E22" s="3">
         <v>12500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>13100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>8400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7900</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1220,26 +1260,29 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-161400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-55400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-66700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-23100</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1258,26 +1301,29 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-5000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-7400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-4100</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1296,8 +1342,11 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1334,26 +1383,29 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-42900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-159700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-50400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-59300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-19000</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1372,26 +1424,29 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-41900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-153500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-47100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-58600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-17700</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1410,8 +1465,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1448,8 +1506,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1486,8 +1547,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1524,8 +1588,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1562,26 +1629,29 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-13000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>14700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-16300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-18400</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1600,26 +1670,29 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-41900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-153500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-47100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-58600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-17700</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1638,8 +1711,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1676,26 +1752,29 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-41900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-153500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-47100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-58600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-17700</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1714,31 +1793,34 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1757,8 +1839,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1773,8 +1858,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1789,26 +1875,27 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>88300</v>
+      </c>
+      <c r="E41" s="3">
         <v>73500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>58400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>90600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>84200</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1827,20 +1914,23 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E42" s="3">
         <v>4300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>4100</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1856,8 +1946,8 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -1865,26 +1955,29 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>220400</v>
+      </c>
+      <c r="E43" s="3">
         <v>224000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>204600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>199100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>199300</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1903,26 +1996,29 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>157500</v>
+      </c>
+      <c r="E44" s="3">
         <v>143300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>143100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>130400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>123200</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1941,26 +2037,29 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E45" s="3">
         <v>35500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>27800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>30100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>29800</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1979,26 +2078,29 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>508400</v>
+      </c>
+      <c r="E46" s="3">
         <v>480600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>438000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>450200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>436500</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2017,8 +2119,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2055,26 +2160,29 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>165100</v>
+      </c>
+      <c r="E48" s="3">
         <v>164900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>162900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>165500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>170800</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2093,26 +2201,29 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2044700</v>
+      </c>
+      <c r="E49" s="3">
         <v>2068400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2219500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2279300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2416000</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2131,8 +2242,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2169,8 +2283,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2207,26 +2324,29 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E52" s="3">
         <v>24800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>14900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>21900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>25600</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2245,8 +2365,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2283,26 +2406,29 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2734800</v>
+      </c>
+      <c r="E54" s="3">
         <v>2738700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2835300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2916900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3048900</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2321,8 +2447,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2337,8 +2466,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2353,26 +2483,27 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E57" s="3">
         <v>67700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>60900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>61800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>53100</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2391,25 +2522,28 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5700</v>
-      </c>
-      <c r="F58" s="3">
-        <v>5800</v>
       </c>
       <c r="G58" s="3">
         <v>5800</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+      <c r="H58" s="3">
+        <v>5800</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2429,26 +2563,29 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>161300</v>
+      </c>
+      <c r="E59" s="3">
         <v>171300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>154700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>145500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>154500</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2467,26 +2604,29 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>233300</v>
+      </c>
+      <c r="E60" s="3">
         <v>244300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>221300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>213100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>213400</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2505,26 +2645,29 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>679500</v>
+      </c>
+      <c r="E61" s="3">
         <v>801500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>802900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>804100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>805700</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2543,26 +2686,29 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>234000</v>
+      </c>
+      <c r="E62" s="3">
         <v>225700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>236100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>240800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>272600</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2581,8 +2727,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2619,8 +2768,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2657,8 +2809,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2695,26 +2850,29 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1213500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1340500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1333900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1336700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1379700</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2733,8 +2891,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2749,8 +2910,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2787,8 +2949,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2825,8 +2990,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2863,8 +3031,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2901,26 +3072,29 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-450400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-408500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-255000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-207900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-149300</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2939,8 +3113,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2977,8 +3154,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3015,8 +3195,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3053,26 +3236,29 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1521300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1398200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1501400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1580200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1669200</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3091,8 +3277,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3129,31 +3318,34 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3172,26 +3364,29 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-41900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-153500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-47100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-58600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-17700</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3210,8 +3405,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3226,25 +3424,26 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E83" s="3">
         <v>42100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>42600</v>
-      </c>
-      <c r="F83" s="3">
-        <v>44900</v>
       </c>
       <c r="G83" s="3">
         <v>44900</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+      <c r="H83" s="3">
+        <v>44900</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3264,8 +3463,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3302,8 +3504,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3340,8 +3545,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3378,8 +3586,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3416,8 +3627,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3454,26 +3668,29 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E89" s="3">
         <v>25200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-13800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>16600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>11400</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3492,8 +3709,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3508,31 +3728,32 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-11500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6600</v>
       </c>
-      <c r="G91" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3546,8 +3767,11 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3584,8 +3808,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3622,26 +3849,29 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-11000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-14000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7900</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3660,8 +3890,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3676,8 +3909,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3714,8 +3948,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3752,8 +3989,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3790,8 +4030,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3828,26 +4071,29 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-600</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3866,26 +4112,29 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>700</v>
+      </c>
+      <c r="E101" s="3">
         <v>3000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1000</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3904,26 +4153,29 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E102" s="3">
         <v>15200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-32200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1900</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3940,6 +4192,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MIR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MIR_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,47 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -723,29 +724,32 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>197200</v>
+      </c>
+      <c r="E8" s="3">
         <v>182100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>217900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>160900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>175800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>163200</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
@@ -764,29 +768,32 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>109200</v>
+      </c>
+      <c r="E9" s="3">
         <v>103000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>120900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>91100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>96800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>98800</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
@@ -805,29 +812,32 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>88000</v>
+      </c>
+      <c r="E10" s="3">
         <v>79100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>97000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>69800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>79000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>64400</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
@@ -846,8 +856,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -863,29 +876,30 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E12" s="3">
         <v>7600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>8000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7100</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
@@ -904,8 +918,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -945,29 +962,32 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E14" s="3">
         <v>4000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>160700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>57400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1900</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -986,8 +1006,11 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1027,8 +1050,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1041,29 +1067,30 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>207800</v>
+      </c>
+      <c r="E17" s="3">
         <v>198300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>379800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>188500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>250400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>196800</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1082,29 +1109,32 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-16200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-161900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-27600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-74600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-33600</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1123,8 +1153,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1140,29 +1173,30 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-12900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>13000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-14700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>16300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>18400</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1181,29 +1215,32 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E21" s="3">
         <v>12200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-106800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-13400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>29700</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1222,29 +1259,32 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E22" s="3">
         <v>14900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>12500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>13100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>8400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7900</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1263,29 +1303,32 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-44000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-161400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-55400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-66700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-23100</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1304,29 +1347,32 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-5000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-7400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-4100</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1345,8 +1391,11 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1386,29 +1435,32 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-42900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-159700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-50400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-59300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-19000</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1427,29 +1479,32 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-41900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-153500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-47100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-58600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-17700</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1468,8 +1523,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1509,8 +1567,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1550,8 +1611,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1591,8 +1655,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1632,29 +1699,32 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E32" s="3">
         <v>12900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-13000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>14700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-16300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-18400</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1673,29 +1743,32 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-41900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-153500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-47100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-58600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-17700</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1714,8 +1787,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1755,29 +1831,32 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-41900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-153500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-47100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-58600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-17700</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1796,34 +1875,37 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1842,8 +1924,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1859,8 +1944,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1876,29 +1962,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>87400</v>
+      </c>
+      <c r="E41" s="3">
         <v>88300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>73500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>58400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>90600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>84200</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1917,23 +2004,26 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E42" s="3">
         <v>4800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>4300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>4100</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1949,8 +2039,8 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -1958,29 +2048,32 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>222200</v>
+      </c>
+      <c r="E43" s="3">
         <v>220400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>224000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>204600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>199100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>199300</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1999,29 +2092,32 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>161800</v>
+      </c>
+      <c r="E44" s="3">
         <v>157500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>143300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>143100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>130400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>123200</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2040,29 +2136,32 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E45" s="3">
         <v>37400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>35500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>27800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>30100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>29800</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2081,29 +2180,32 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>503100</v>
+      </c>
+      <c r="E46" s="3">
         <v>508400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>480600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>438000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>450200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>436500</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2122,8 +2224,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2163,29 +2268,32 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>165600</v>
+      </c>
+      <c r="E48" s="3">
         <v>165100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>164900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>162900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>165500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>170800</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2204,29 +2312,32 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2011900</v>
+      </c>
+      <c r="E49" s="3">
         <v>2044700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2068400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2219500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2279300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2416000</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2245,8 +2356,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2286,8 +2400,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2327,29 +2444,32 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E52" s="3">
         <v>16600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>24800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>14900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>21900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>25600</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2368,8 +2488,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2409,29 +2532,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2696300</v>
+      </c>
+      <c r="E54" s="3">
         <v>2734800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2738700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2835300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2916900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3048900</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2450,8 +2576,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2467,8 +2596,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2484,29 +2614,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E57" s="3">
         <v>66000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>67700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>60900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>61800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>53100</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2525,28 +2656,31 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E58" s="3">
         <v>6000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5700</v>
-      </c>
-      <c r="G58" s="3">
-        <v>5800</v>
       </c>
       <c r="H58" s="3">
         <v>5800</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+      <c r="I58" s="3">
+        <v>5800</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2566,29 +2700,32 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>157700</v>
+      </c>
+      <c r="E59" s="3">
         <v>161300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>171300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>154700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>145500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>154500</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2607,29 +2744,32 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>224500</v>
+      </c>
+      <c r="E60" s="3">
         <v>233300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>244300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>221300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>213100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>213400</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2648,29 +2788,32 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>677900</v>
+      </c>
+      <c r="E61" s="3">
         <v>679500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>801500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>802900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>804100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>805700</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2689,29 +2832,32 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>229400</v>
+      </c>
+      <c r="E62" s="3">
         <v>234000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>225700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>236100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>240800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>272600</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2730,8 +2876,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2771,8 +2920,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2812,8 +2964,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2853,29 +3008,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1197800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1213500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1340500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1333900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1336700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1379700</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2894,8 +3052,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2911,8 +3072,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2952,8 +3114,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2993,8 +3158,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3034,8 +3202,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3075,29 +3246,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-478100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-450400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-408500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-255000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-207900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-149300</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3116,8 +3290,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3157,8 +3334,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3198,8 +3378,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3239,29 +3422,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1498500</v>
+      </c>
+      <c r="E76" s="3">
         <v>1521300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1398200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1501400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1580200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1669200</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3280,8 +3466,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3321,34 +3510,37 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3367,29 +3559,32 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-41900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-153500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-47100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-58600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-17700</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3408,8 +3603,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3425,28 +3623,29 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>40900</v>
+      </c>
+      <c r="E83" s="3">
         <v>41300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>42100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>42600</v>
-      </c>
-      <c r="G83" s="3">
-        <v>44900</v>
       </c>
       <c r="H83" s="3">
         <v>44900</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3">
+        <v>44900</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3466,8 +3665,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3507,8 +3709,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3548,8 +3753,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3589,8 +3797,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3630,8 +3841,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3671,29 +3885,32 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>25200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-13800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>16600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>11400</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3712,8 +3929,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3729,34 +3949,35 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6600</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
@@ -3770,8 +3991,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3811,8 +4035,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3852,29 +4079,32 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-11000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-14000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7900</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3893,8 +4123,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3910,8 +4143,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3951,8 +4185,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3992,8 +4229,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4033,8 +4273,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4074,29 +4317,32 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E100" s="3">
         <v>24600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-600</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4115,29 +4361,32 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1000</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4156,29 +4405,32 @@
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E102" s="3">
         <v>15100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>15200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-32200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1900</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4195,6 +4447,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MIR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MIR_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,50 +665,51 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -727,32 +728,35 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>191200</v>
+      </c>
+      <c r="E8" s="3">
         <v>197200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>182100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>217900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>160900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>175800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>163200</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
@@ -771,32 +775,35 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>110400</v>
+      </c>
+      <c r="E9" s="3">
         <v>109200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>103000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>120900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>91100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>96800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>98800</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
@@ -815,32 +822,35 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>80800</v>
+      </c>
+      <c r="E10" s="3">
         <v>88000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>79100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>97000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>69800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>79000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>64400</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
@@ -859,8 +869,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -877,32 +890,33 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E12" s="3">
         <v>8400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>8000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>7100</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
@@ -921,8 +935,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -965,32 +982,35 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
         <v>6400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>160700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>57400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1900</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1009,8 +1029,11 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1053,8 +1076,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1068,32 +1094,33 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>202300</v>
+      </c>
+      <c r="E17" s="3">
         <v>207800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>198300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>379800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>188500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>250400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>196800</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1112,32 +1139,35 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-10600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-16200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-161900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-27600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-74600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-33600</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1156,8 +1186,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1174,32 +1207,33 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-12900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>13000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-14700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>16300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>18400</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1218,32 +1252,35 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>42400</v>
+      </c>
+      <c r="E21" s="3">
         <v>24900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>12200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-106800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-13400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>29700</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1262,32 +1299,35 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E22" s="3">
         <v>13600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>14900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>12500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>13100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>8400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7900</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1306,32 +1346,35 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-29600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-44000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-161400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-55400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-66700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-23100</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1350,32 +1393,35 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-5000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-7400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-4100</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1394,8 +1440,11 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1438,32 +1487,35 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-28400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-42900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-159700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-50400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-59300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-19000</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1482,32 +1534,35 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-27700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-41900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-153500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-47100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-58600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-17700</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1526,8 +1581,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1570,8 +1628,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1614,8 +1675,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1658,8 +1722,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1702,32 +1769,35 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E32" s="3">
         <v>5400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>12900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-13000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>14700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-16300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-18400</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1746,32 +1816,35 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-27700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-41900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-153500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-47100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-58600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-17700</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1790,8 +1863,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1834,32 +1910,35 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-27700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-41900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-153500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-47100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-58600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-17700</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1878,37 +1957,40 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1927,8 +2009,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1945,8 +2030,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1963,32 +2049,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100500</v>
+      </c>
+      <c r="E41" s="3">
         <v>87400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>88300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>73500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>58400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>90600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>84200</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2007,8 +2094,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2016,17 +2106,17 @@
         <v>5000</v>
       </c>
       <c r="E42" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F42" s="3">
         <v>4800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>4300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>4100</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2042,8 +2132,8 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2051,32 +2141,35 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>225700</v>
+      </c>
+      <c r="E43" s="3">
         <v>222200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>220400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>224000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>204600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>199100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>199300</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2095,32 +2188,35 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>155700</v>
+      </c>
+      <c r="E44" s="3">
         <v>161800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>157500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>143300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>143100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>130400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>123200</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2139,32 +2235,35 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E45" s="3">
         <v>26700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>37400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>35500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>27800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>30100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>29800</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2183,32 +2282,35 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>513100</v>
+      </c>
+      <c r="E46" s="3">
         <v>503100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>508400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>480600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>438000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>450200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>436500</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2227,8 +2329,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2271,32 +2376,35 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>162700</v>
+      </c>
+      <c r="E48" s="3">
         <v>165600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>165100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>164900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>162900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>165500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>170800</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2315,32 +2423,35 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1963900</v>
+      </c>
+      <c r="E49" s="3">
         <v>2011900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2044700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2068400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2219500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2279300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2416000</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2359,8 +2470,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2403,8 +2517,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2447,32 +2564,35 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E52" s="3">
         <v>15700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>16600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>24800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>14900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>21900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>25600</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2491,8 +2611,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2535,32 +2658,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2658900</v>
+      </c>
+      <c r="E54" s="3">
         <v>2696300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2734800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2738700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2835300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2916900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3048900</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2579,8 +2705,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2597,8 +2726,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2615,32 +2745,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>52900</v>
+      </c>
+      <c r="E57" s="3">
         <v>61000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>66000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>67700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>60900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>61800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>53100</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2659,31 +2790,34 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3">
         <v>5800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5700</v>
-      </c>
-      <c r="H58" s="3">
-        <v>5800</v>
       </c>
       <c r="I58" s="3">
         <v>5800</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+      <c r="J58" s="3">
+        <v>5800</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2703,32 +2837,35 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>175100</v>
+      </c>
+      <c r="E59" s="3">
         <v>157700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>161300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>171300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>154700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>145500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>154500</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2747,32 +2884,35 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>228200</v>
+      </c>
+      <c r="E60" s="3">
         <v>224500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>233300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>244300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>221300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>213100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>213400</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2791,32 +2931,35 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>684200</v>
+      </c>
+      <c r="E61" s="3">
         <v>677900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>679500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>801500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>802900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>804100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>805700</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2835,32 +2978,35 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>203200</v>
+      </c>
+      <c r="E62" s="3">
         <v>229400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>234000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>225700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>236100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>240800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>272600</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2879,8 +3025,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2923,8 +3072,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2967,8 +3119,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3011,32 +3166,35 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1180200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1197800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1213500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1340500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1333900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1336700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1379700</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3055,8 +3213,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3073,8 +3234,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3117,8 +3279,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3161,8 +3326,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3205,8 +3373,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3249,32 +3420,35 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-490200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-478100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-450400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-408500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-255000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-207900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-149300</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3293,8 +3467,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3337,8 +3514,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3381,8 +3561,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3425,32 +3608,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1478700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1498500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1521300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1398200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1501400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1580200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1669200</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3469,8 +3655,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3513,37 +3702,40 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3562,32 +3754,35 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-27700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-41900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-153500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-47100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-58600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-17700</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3606,8 +3801,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3624,31 +3822,32 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>40600</v>
+      </c>
+      <c r="E83" s="3">
         <v>40900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>41300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>42100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>42600</v>
-      </c>
-      <c r="H83" s="3">
-        <v>44900</v>
       </c>
       <c r="I83" s="3">
         <v>44900</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="J83" s="3">
+        <v>44900</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3668,8 +3867,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3712,8 +3914,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3756,8 +3961,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3800,8 +4008,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3844,8 +4055,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3888,32 +4102,35 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E89" s="3">
         <v>7100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>25200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-13800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>16600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>11400</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3932,8 +4149,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3950,37 +4170,38 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-11500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6600</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
@@ -3994,8 +4215,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4038,8 +4262,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4082,32 +4309,35 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-11000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-14000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-7900</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4126,8 +4356,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4144,8 +4377,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4188,8 +4422,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4232,8 +4469,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4276,8 +4516,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4320,32 +4563,35 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>24600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-600</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4364,32 +4610,35 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>3000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4408,32 +4657,35 @@
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>15100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>15200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-32200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1900</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4450,6 +4702,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
